--- a/Data/Forbrug loebende priser 2013.xlsx
+++ b/Data/Forbrug loebende priser 2013.xlsx
@@ -3882,16 +3882,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3923,17 +3915,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4216,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1265" workbookViewId="0">
-      <selection activeCell="A1273" sqref="A1273:XFD1283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4228,41 +4220,41 @@
     <col min="12" max="12" width="13.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -52565,8 +52557,8 @@
       </c>
     </row>
     <row r="1274" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1274" s="4"/>
-      <c r="B1274" s="3"/>
+      <c r="A1274" s="3"/>
+      <c r="B1274" s="4"/>
       <c r="C1274" s="5"/>
       <c r="D1274" s="5"/>
       <c r="E1274" s="5"/>
@@ -52579,8 +52571,8 @@
       <c r="L1274" s="5"/>
     </row>
     <row r="1275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1275" s="4"/>
-      <c r="B1275" s="3"/>
+      <c r="A1275" s="3"/>
+      <c r="B1275" s="4"/>
     </row>
     <row r="1279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1279" s="2"/>
